--- a/example/motor_data/customsig.xlsx
+++ b/example/motor_data/customsig.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A323"/>
+  <dimension ref="A1:A625"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K323" sqref="K323"/>
+    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
+      <selection activeCell="G617" sqref="G617"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1971,6 +1971,1516 @@
         <v>5</v>
       </c>
     </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/example/motor_data/customsig.xlsx
+++ b/example/motor_data/customsig.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kmol\ControlDesign\example\motor_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smpss91341/Desktop/ControlDesign/example/motor_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17265" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -350,3135 +353,3760 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
-      <selection activeCell="G617" sqref="G617"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0</v>
+        <f>SIN(RADIANS(ROW()))</f>
+        <v>1.7452406437283512E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <f t="shared" ref="A2:A65" si="0">SIN(RADIANS(ROW()))</f>
+        <v>3.4899496702500969E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5.2335956242943835E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>6.9756473744125302E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>8.7155742747658166E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.10452846326765347</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.12186934340514748</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.13917310096006544</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.15643446504023087</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.17364817766693033</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.1908089953765448</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.20791169081775934</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.224951054343865</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.24192189559966773</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.25881904510252074</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.27563735581699916</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.29237170472273677</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.3090169943749474</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.3255681544571567</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.34202014332566871</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.35836794954530027</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.37460659341591201</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.39073112848927377</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.40673664307580021</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.42261826174069944</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.4383711467890774</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.45399049973954675</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.46947156278589081</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.48480962024633706</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.51503807491005416</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <f>SIN(RADIANS(ROW()))</f>
+        <v>0.5299192642332049</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.54463903501502708</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.5591929034707469</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.57357643635104605</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.58778525229247314</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.60181502315204827</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.61566147532565829</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.62932039104983739</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.64278760968653925</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.65605902899050728</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.66913060635885824</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.68199836006249848</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.69465837045899725</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70710678118654746</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.71933980033865108</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.73135370161917046</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.74314482547739424</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.75470958022277201</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.76604444311897801</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.7771459614569709</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.78801075360672201</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.79863551004729283</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.80901699437494745</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.8191520442889918</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.82903757255504174</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.83867056794542405</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.84804809615642596</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.85716730070211233</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.8660254037844386</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.87461970713939574</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>5</v>
+        <f>SIN(RADIANS(ROW()))</f>
+        <v>0.88294759285892688</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.89100652418836779</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.89879404629916704</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0.90630778703664994</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>5</v>
+        <f t="shared" ref="A66:A131" si="1">SIN(RADIANS(ROW()))</f>
+        <v>0.91354545764260087</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.92050485345244037</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.92718385456678742</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.93358042649720174</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.93969262078590832</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.94551857559931674</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.95105651629515353</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.95630475596303544</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.96126169593831889</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.96592582628906831</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.97029572627599647</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.97437006478523525</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.97814760073380558</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.98162718344766398</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.98480775301220802</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.98768834059513777</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.99026806874157036</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.99254615164132198</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.99452189536827329</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.99619469809174555</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.9975640502598242</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.99862953475457383</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.99939082701909576</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.99984769515639127</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.99984769515639127</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.99939082701909576</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>5</v>
+        <f>SIN(RADIANS(ROW()))</f>
+        <v>0.99862953475457383</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.9975640502598242</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.99619469809174555</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.99452189536827329</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.99254615164132209</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.99026806874157036</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.98768834059513777</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.98480775301220802</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.98162718344766398</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.97814760073380569</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.97437006478523525</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.97029572627599647</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.96592582628906831</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.96126169593831889</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.95630475596303555</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.95105651629515364</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.94551857559931685</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.93969262078590843</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.93358042649720174</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.92718385456678742</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.92050485345244026</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.91354545764260087</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.90630778703665005</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.89879404629916693</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.8910065241883679</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.88294759285892688</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.87461970713939585</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.86602540378443871</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.85716730070211233</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.84804809615642607</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.83867056794542394</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.82903757255504174</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.81915204428899169</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.80901699437494745</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.79863551004729272</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.78801075360672201</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.77714596145697101</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>5</v>
+        <f t="shared" ref="A130" si="2">SIN(RADIANS(ROW()))</f>
+        <v>0.76604444311897801</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>0.75470958022277213</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>5</v>
+        <f t="shared" ref="A132:A195" si="3">SIN(RADIANS(ROW()))</f>
+        <v>0.74314482547739424</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.73135370161917057</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.71933980033865108</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.70710678118654757</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.69465837045899714</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.68199836006249859</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.66913060635885835</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.65605902899050728</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.64278760968653947</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.62932039104983739</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.6156614753256584</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.60181502315204816</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.58778525229247325</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.57357643635104594</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.5591929034707469</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.54463903501502731</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.5299192642332049</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.51503807491005438</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.49999999999999994</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.48480962024633717</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.46947156278589069</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.45399049973954686</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.43837114678907729</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.4226182617406995</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.40673664307580043</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.39073112848927377</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.37460659341591224</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.35836794954530021</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.34202014332566888</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.32556815445715659</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.30901699437494751</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.2923717047227366</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.27563735581699922</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.25881904510252102</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.24192189559966773</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.2249510543438652</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.20791169081775931</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.19080899537654497</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.17364817766693028</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.15643446504023098</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.13917310096006533</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.12186934340514755</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>0.10452846326765373</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>8.7155742747658194E-2</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6.9756473744125524E-2</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>5.2335956242943807E-2</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>3.4899496702501143E-2</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>1.7452406437283439E-2</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>1.22514845490862E-16</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-1.7452406437283637E-2</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-3.48994967025009E-2</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-5.2335956242943557E-2</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-6.9756473744125275E-2</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-8.7155742747657944E-2</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-0.1045284632676535</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-0.12186934340514731</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-0.13917310096006552</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-0.15643446504023073</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-0.17364817766693047</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-0.19080899537654472</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-0.20791169081775951</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-0.22495105434386498</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-0.24192189559966751</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>-0.25881904510252079</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>5</v>
+        <f t="shared" ref="A196:A259" si="4">SIN(RADIANS(ROW()))</f>
+        <v>-0.275637355816999</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.29237170472273677</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.30901699437494728</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.32556815445715676</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.34202014332566866</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.35836794954530043</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.37460659341591201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.39073112848927355</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.40673664307580021</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.42261826174069927</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.43837114678907746</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.45399049973954669</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.46947156278589086</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.48480962024633695</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.50000000000000011</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.51503807491005416</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.52991926423320479</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.54463903501502708</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.55919290347074668</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.57357643635104616</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.58778525229247303</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.60181502315204838</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.61566147532565818</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.62932039104983761</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.64278760968653925</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.65605902899050705</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.66913060635885824</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.68199836006249837</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.69465837045899737</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.70710678118654746</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.71933980033865119</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.73135370161917046</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.74314482547739436</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.75470958022277201</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.7660444431189779</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.77714596145697057</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.78801075360672213</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.79863551004729283</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.80901699437494734</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.81915204428899158</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.82903757255504185</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.83867056794542405</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.84804809615642596</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.85716730070211211</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.86602540378443837</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.87461970713939596</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.88294759285892699</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.89100652418836779</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.89879404629916682</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.90630778703665005</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.91354545764260098</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.92050485345244026</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.92718385456678731</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.93358042649720163</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.93969262078590843</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.94551857559931685</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.95105651629515353</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.95630475596303532</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.96126169593831901</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.96592582628906831</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.97029572627599647</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.97437006478523513</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.97814760073380558</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>-0.98162718344766398</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>5</v>
+        <f t="shared" ref="A260:A323" si="5">SIN(RADIANS(ROW()))</f>
+        <v>-0.98480775301220802</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.98768834059513766</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.99026806874157025</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.99254615164132209</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.9945218953682734</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.99619469809174555</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.9975640502598242</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.99862953475457383</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.99939082701909576</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.99984769515639127</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.99984769515639127</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.99939082701909576</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.99862953475457383</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.99756405025982431</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.99619469809174555</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.9945218953682734</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.99254615164132198</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.99026806874157036</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.98768834059513777</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.98480775301220813</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.98162718344766386</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.97814760073380558</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.97437006478523525</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.97029572627599658</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.96592582628906842</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.96126169593831878</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.95630475596303544</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.95105651629515364</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.94551857559931696</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.93969262078590832</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.93358042649720174</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.92718385456678742</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.92050485345244049</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.91354545764260109</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.90630778703664994</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.89879404629916704</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.8910065241883679</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.8829475928589271</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.87461970713939563</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.8660254037844386</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.85716730070211233</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.84804809615642618</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.83867056794542427</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.82903757255504162</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.8191520442889918</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.80901699437494756</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.79863551004729305</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.78801075360672179</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.77714596145697079</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.76604444311897812</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.75470958022277224</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.74314482547739458</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.73135370161917035</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.71933980033865119</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.70710678118654768</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.69465837045899759</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.68199836006249825</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.66913060635885813</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.65605902899050739</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.64278760968653958</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.62932039104983784</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.61566147532565818</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>-0.60181502315204827</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>5</v>
+        <f t="shared" ref="A324:A387" si="6">SIN(RADIANS(ROW()))</f>
+        <v>-0.58778525229247336</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.57357643635104649</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.55919290347074657</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.54463903501502697</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.52991926423320501</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.51503807491005449</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.50000000000000044</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.48480962024633689</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.46947156278589081</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.45399049973954697</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.43837114678907779</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.42261826174069922</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.40673664307580015</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.39073112848927388</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.37460659341591235</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.35836794954530077</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.3420201433256686</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.3255681544571567</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.30901699437494762</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.29237170472273716</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.27563735581699894</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.25881904510252068</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.24192189559966787</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.22495105434386534</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.20791169081775987</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.19080899537654467</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.17364817766693039</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.15643446504023112</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.13917310096006588</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.12186934340514723</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-0.10452846326765342</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-8.7155742747658319E-2</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-6.9756473744125636E-2</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-5.2335956242944369E-2</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-3.4899496702500823E-2</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-1.745240643728356E-2</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>-2.45029690981724E-16</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>1.7452406437283071E-2</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>3.4899496702501219E-2</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>5.2335956242943883E-2</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>6.975647374412515E-2</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>8.7155742747657833E-2</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.10452846326765293</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.12186934340514763</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.13917310096006538</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.15643446504023062</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.17364817766692991</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.19080899537654505</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.20791169081775937</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.22495105434386484</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.24192189559966737</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.25881904510252024</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.27563735581699933</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.29237170472273666</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.30901699437494717</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.32556815445715626</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.34202014332566893</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.35836794954530032</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.3746065934159119</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.39073112848927344</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.40673664307580049</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.42261826174069955</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.43837114678907735</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>0.45399049973954658</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>12</v>
+        <f t="shared" ref="A388:A451" si="7">SIN(RADIANS(ROW()))</f>
+        <v>0.46947156278589036</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.48480962024633723</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.51503807491005404</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.52991926423320468</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.54463903501502731</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.5591929034707469</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.57357643635104605</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.58778525229247292</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.60181502315204793</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.6156614753256584</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.6293203910498375</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.64278760968653914</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.65605902899050705</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.66913060635885846</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.68199836006249859</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.69465837045899725</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.70710678118654735</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.71933980033865086</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.73135370161917068</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.74314482547739424</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.7547095802227719</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.76604444311897779</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.77714596145697112</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.78801075360672201</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.79863551004729283</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.80901699437494723</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.81915204428899147</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.82903757255504185</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.83867056794542405</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.84804809615642585</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.85716730070211211</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.86602540378443882</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.87461970713939585</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.88294759285892688</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.89100652418836768</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.89879404629916682</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.90630778703665005</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.91354545764260087</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.92050485345244026</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.9271838545667872</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.93358042649720185</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.93969262078590843</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.94551857559931674</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.95105651629515353</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.95630475596303532</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.96126169593831889</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.96592582628906831</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.97029572627599647</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.97437006478523513</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.97814760073380569</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.98162718344766398</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.98480775301220802</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.98768834059513766</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.99026806874157025</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.99254615164132209</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.99452189536827329</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.99619469809174555</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.9975640502598242</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.99862953475457394</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.99939082701909576</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.99984769515639127</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>12</v>
+        <f t="shared" si="7"/>
+        <v>0.99984769515639127</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>12</v>
+        <f t="shared" ref="A452:A515" si="8">SIN(RADIANS(ROW()))</f>
+        <v>0.99939082701909576</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.99862953475457383</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.99756405025982431</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.99619469809174555</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.99452189536827329</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.99254615164132198</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.99026806874157036</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.98768834059513766</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.98480775301220813</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.98162718344766386</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.9781476007338058</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.97437006478523525</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.97029572627599636</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.96592582628906842</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.96126169593831889</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.95630475596303577</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.95105651629515364</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.94551857559931674</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>12</v>
+        <f t="shared" si="8"/>
+        <v>0.93969262078590865</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.93358042649720174</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.9271838545667872</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.92050485345244049</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.91354545764260076</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.90630778703665027</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.89879404629916704</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.89100652418836757</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.88294759285892721</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.87461970713939574</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.86602540378443915</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.85716730070211244</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.84804809615642573</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.83867056794542438</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.82903757255504162</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.81915204428899235</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.80901699437494767</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.79863551004729261</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.78801075360672246</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.7771459614569709</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.76604444311897757</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.75470958022277224</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.74314482547739402</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.73135370161917101</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.71933980033865119</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.70710678118654713</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.6946583704589977</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.68199836006249837</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.6691306063588589</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.6560590289905075</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.64278760968653903</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.62932039104983795</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.61566147532565829</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.60181502315204916</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.58778525229247336</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.57357643635104583</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.55919290347074746</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.54463903501502708</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.52991926423320446</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.5150380749100546</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.49999999999999978</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.48480962024633778</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.46947156278589092</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.4539904997395463</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.4383711467890779</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0.42261826174069933</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>0</v>
+        <f t="shared" ref="A516:A579" si="9">SIN(RADIANS(ROW()))</f>
+        <v>0.4067366430758011</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.39073112848927399</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.37460659341591163</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.35836794954530088</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.34202014332566871</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.32556815445715598</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.30901699437494778</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.29237170472273638</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.27563735581699988</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.25881904510252079</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.24192189559966712</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.22495105434386545</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.20791169081775912</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.19080899537654564</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.1736481776669305</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.15643446504023034</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.13917310096006599</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.12186934340514735</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0.10452846326765443</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>8.7155742747658443E-2</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>6.9756473744124872E-2</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>5.2335956242944494E-2</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>3.4899496702500941E-2</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1.7452406437282793E-2</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>3.67544536472586E-16</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.7452406437283834E-2</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-3.4899496702500206E-2</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-5.2335956242943758E-2</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-6.9756473744125913E-2</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-8.7155742747657708E-2</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.10452846326765369</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.12186934340514662</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.13917310096006527</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.15643446504023137</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.17364817766692978</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.19080899537654492</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.2079116908177584</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.22495105434386473</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.24192189559966812</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.25881904510252013</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.27563735581699922</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.29237170472273738</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.30901699437494706</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.32556815445715698</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.34202014332566799</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.35836794954530021</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.37460659341591257</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.39073112848927333</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.40673664307580037</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.42261826174069866</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.43837114678907724</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.45399049973954725</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.46947156278589025</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.48480962024633711</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.49999999999999917</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.51503807491005393</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.52991926423320534</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.54463903501502653</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.55919290347074679</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.57357643635104671</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.5877852522924728</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.60181502315204849</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.61566147532565763</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-0.62932039104983739</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>0</v>
+        <f t="shared" ref="A580:A625" si="10">SIN(RADIANS(ROW()))</f>
+        <v>-0.64278760968653981</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.65605902899050694</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.66913060635885835</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.68199836006249781</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.69465837045899714</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.70710678118654791</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.71933980033865075</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.73135370161917057</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.74314482547739358</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.75470958022277179</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.76604444311897824</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.77714596145697046</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.7880107536067219</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.79863551004729327</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.80901699437494723</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.81915204428899191</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.82903757255504129</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.83867056794542394</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.84804809615642629</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.857167300702112</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.86602540378443871</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.87461970713939541</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.88294759285892688</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.89100652418836812</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.8987940462991667</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.90630778703665005</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.91354545764260053</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.92050485345244015</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.92718385456678754</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.93358042649720152</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.93969262078590843</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.94551857559931707</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.95105651629515342</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.95630475596303555</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.96126169593831867</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.9659258262890682</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.97029572627599658</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.97437006478523513</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.97814760073380569</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.98162718344766375</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.98480775301220802</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.98768834059513777</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.99026806874157025</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.99254615164132209</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.99452189536827318</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-0.99619469809174555</v>
       </c>
     </row>
   </sheetData>
